--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_12_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_12_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17054.03498187289</v>
+        <v>9275.671231975331</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33969154.61612364</v>
+        <v>33937088.13219456</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10662833.79977381</v>
+        <v>10494200.71426641</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3575616.218263936</v>
+        <v>3658688.381429855</v>
       </c>
     </row>
     <row r="11">
@@ -1141,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>119.0839105424603</v>
       </c>
       <c r="H8" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>119.0839105424603</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>104.889108405799</v>
       </c>
       <c r="X8" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>119.0839105424603</v>
       </c>
     </row>
     <row r="9">
@@ -1220,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>2.873653090726851</v>
+        <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>3.262548922260276</v>
+        <v>59.05530966656966</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>3.262548922260276</v>
+        <v>23.9438979135812</v>
       </c>
       <c r="W9" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>119.0839105424603</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1296,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>3.262548922260276</v>
+        <v>119.0839105424603</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>91.32747982963492</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>119.0839105424603</v>
       </c>
       <c r="H10" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>13.5616285761641</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>119.0839105424603</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1384,10 +1384,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>275.1106372348589</v>
       </c>
       <c r="H11" t="n">
-        <v>25.17873337201464</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>85.1488807209182</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>61.67060262641429</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>143.7721879877244</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>18.94804780746588</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>49.34995949258659</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>52.46272922979639</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>201.5041232421067</v>
       </c>
       <c r="F17" t="n">
-        <v>48.50583343253361</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2010,16 +2010,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>85.1488807209182</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>277.0289439627924</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>224.2859784939136</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>117.9140215637316</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
@@ -2146,10 +2146,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2247,13 +2247,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>17.75123914303109</v>
+        <v>85.1488807209173</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>206.9768876553146</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>147.0960455359622</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2490,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>49.34995949258705</v>
       </c>
       <c r="H25" t="n">
-        <v>49.34995949258617</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>201.5041232421072</v>
       </c>
       <c r="X26" t="n">
-        <v>170.8454278428345</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2715,19 +2715,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>55.96684102370138</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>54.31661462075035</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>112.2390242751343</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -2860,7 +2860,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>213.5382021707748</v>
       </c>
     </row>
     <row r="30">
@@ -2952,10 +2952,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>57.0922853105867</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3015,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>67.20412255036099</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3031,10 +3031,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>220.3673371113834</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -3043,7 +3043,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>109.5540470185018</v>
       </c>
     </row>
     <row r="33">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43.55349484584004</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>49.34995949258661</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
@@ -3252,10 +3252,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3271,19 +3271,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>176.1446634785938</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>328.5107569703947</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>150.852365810871</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>135.9252640253259</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>159.6880037645416</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>199.1695493420044</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3663,25 +3663,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>26.58566199952674</v>
       </c>
       <c r="D40" t="n">
-        <v>49.34995949258659</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -3754,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>275.1106372348589</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>172.5998412330482</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3900,22 +3900,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>30.54231102287892</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>22.68454702280287</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>62.46433369811443</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>167.4490654225681</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>361.4649050157285</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T45" t="n">
         <v>124.8306395731037</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>52.38231984290697</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4149,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>32.01788871693722</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.852011837538956</v>
+        <v>129.8134911691143</v>
       </c>
       <c r="C8" t="n">
-        <v>6.852011837538956</v>
+        <v>129.8134911691143</v>
       </c>
       <c r="D8" t="n">
-        <v>6.852011837538956</v>
+        <v>129.8134911691143</v>
       </c>
       <c r="E8" t="n">
-        <v>3.556507875659889</v>
+        <v>129.8134911691143</v>
       </c>
       <c r="F8" t="n">
-        <v>3.556507875659889</v>
+        <v>129.8134911691143</v>
       </c>
       <c r="G8" t="n">
-        <v>3.556507875659889</v>
+        <v>9.526712843396824</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2610039137808221</v>
+        <v>9.526712843396824</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2610039137808221</v>
+        <v>23.57954741585555</v>
       </c>
       <c r="J8" t="n">
-        <v>1.160310701713748</v>
+        <v>55.41632306557999</v>
       </c>
       <c r="K8" t="n">
-        <v>2.508138455589629</v>
+        <v>103.1313969318064</v>
       </c>
       <c r="L8" t="n">
-        <v>4.180237967355344</v>
+        <v>162.3261653183086</v>
       </c>
       <c r="M8" t="n">
-        <v>6.040770853278583</v>
+        <v>228.1917507590919</v>
       </c>
       <c r="N8" t="n">
-        <v>7.931409106423306</v>
+        <v>295.1231102326565</v>
       </c>
       <c r="O8" t="n">
-        <v>9.716685196678938</v>
+        <v>358.3244950336405</v>
       </c>
       <c r="P8" t="n">
-        <v>11.24037703589</v>
+        <v>412.2654147455648</v>
       </c>
       <c r="Q8" t="n">
-        <v>12.38460615143387</v>
+        <v>452.7727990244988</v>
       </c>
       <c r="R8" t="n">
-        <v>13.05019568904111</v>
+        <v>476.3356421698412</v>
       </c>
       <c r="S8" t="n">
-        <v>10.14751579941802</v>
+        <v>476.3356421698412</v>
       </c>
       <c r="T8" t="n">
-        <v>10.14751579941802</v>
+        <v>476.3356421698412</v>
       </c>
       <c r="U8" t="n">
-        <v>10.14751579941802</v>
+        <v>356.0488638441237</v>
       </c>
       <c r="V8" t="n">
-        <v>10.14751579941802</v>
+        <v>356.0488638441237</v>
       </c>
       <c r="W8" t="n">
-        <v>10.14751579941802</v>
+        <v>250.1002694948318</v>
       </c>
       <c r="X8" t="n">
-        <v>6.852011837538956</v>
+        <v>250.1002694948318</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.852011837538956</v>
+        <v>129.8134911691143</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.163683803403904</v>
+        <v>272.2112804298299</v>
       </c>
       <c r="C9" t="n">
-        <v>3.163683803403904</v>
+        <v>272.2112804298299</v>
       </c>
       <c r="D9" t="n">
-        <v>3.163683803403904</v>
+        <v>272.2112804298299</v>
       </c>
       <c r="E9" t="n">
-        <v>3.163683803403904</v>
+        <v>178.0908657567836</v>
       </c>
       <c r="F9" t="n">
-        <v>3.163683803403904</v>
+        <v>94.70702737294522</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2610039137808221</v>
+        <v>9.526712843396824</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2610039137808221</v>
+        <v>9.526712843396824</v>
       </c>
       <c r="I9" t="n">
-        <v>1.072177809113714</v>
+        <v>16.43678475114674</v>
       </c>
       <c r="J9" t="n">
-        <v>1.607798771138299</v>
+        <v>134.3298561881824</v>
       </c>
       <c r="K9" t="n">
-        <v>2.523260307689951</v>
+        <v>205.5497300437111</v>
       </c>
       <c r="L9" t="n">
-        <v>3.754211318554213</v>
+        <v>249.1271962594002</v>
       </c>
       <c r="M9" t="n">
-        <v>5.190673088024537</v>
+        <v>299.9800439168158</v>
       </c>
       <c r="N9" t="n">
-        <v>6.665153726207345</v>
+        <v>352.1788151343524</v>
       </c>
       <c r="O9" t="n">
-        <v>8.014015446969967</v>
+        <v>399.9304929406849</v>
       </c>
       <c r="P9" t="n">
-        <v>9.096595895631886</v>
+        <v>438.2554242425467</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.820272256003433</v>
+        <v>463.8746258735217</v>
       </c>
       <c r="R9" t="n">
-        <v>13.05019568904111</v>
+        <v>476.3356421698412</v>
       </c>
       <c r="S9" t="n">
-        <v>9.754691727162038</v>
+        <v>416.6838142238112</v>
       </c>
       <c r="T9" t="n">
-        <v>9.754691727162038</v>
+        <v>416.6838142238112</v>
       </c>
       <c r="U9" t="n">
-        <v>9.754691727162038</v>
+        <v>416.6838142238112</v>
       </c>
       <c r="V9" t="n">
-        <v>6.459187765282971</v>
+        <v>392.4980587555474</v>
       </c>
       <c r="W9" t="n">
-        <v>3.163683803403904</v>
+        <v>392.4980587555474</v>
       </c>
       <c r="X9" t="n">
-        <v>3.163683803403904</v>
+        <v>272.2112804298299</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.163683803403904</v>
+        <v>272.2112804298299</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.852011837538956</v>
+        <v>342.3502491207257</v>
       </c>
       <c r="C10" t="n">
-        <v>6.852011837538956</v>
+        <v>342.3502491207257</v>
       </c>
       <c r="D10" t="n">
-        <v>3.556507875659889</v>
+        <v>222.0634707950082</v>
       </c>
       <c r="E10" t="n">
-        <v>3.556507875659889</v>
+        <v>222.0634707950082</v>
       </c>
       <c r="F10" t="n">
-        <v>3.556507875659889</v>
+        <v>129.8134911691143</v>
       </c>
       <c r="G10" t="n">
-        <v>3.556507875659889</v>
+        <v>9.526712843396824</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2610039137808221</v>
+        <v>9.526712843396824</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2610039137808221</v>
+        <v>9.526712843396824</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5970352923692026</v>
+        <v>108.0024003011148</v>
       </c>
       <c r="K10" t="n">
-        <v>1.149238072150545</v>
+        <v>225.8954717381505</v>
       </c>
       <c r="L10" t="n">
-        <v>1.855867513507672</v>
+        <v>250.9111875026076</v>
       </c>
       <c r="M10" t="n">
-        <v>2.600909182660231</v>
+        <v>277.2867523140625</v>
       </c>
       <c r="N10" t="n">
-        <v>3.360425389928086</v>
+        <v>303.035165146587</v>
       </c>
       <c r="O10" t="n">
-        <v>6.590348822965759</v>
+        <v>326.8179918988054</v>
       </c>
       <c r="P10" t="n">
-        <v>9.820272256003433</v>
+        <v>358.4425707328055</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05019568904111</v>
+        <v>476.3356421698412</v>
       </c>
       <c r="R10" t="n">
-        <v>13.05019568904111</v>
+        <v>462.6370274464431</v>
       </c>
       <c r="S10" t="n">
-        <v>13.05019568904111</v>
+        <v>342.3502491207257</v>
       </c>
       <c r="T10" t="n">
-        <v>13.05019568904111</v>
+        <v>342.3502491207257</v>
       </c>
       <c r="U10" t="n">
-        <v>13.05019568904111</v>
+        <v>342.3502491207257</v>
       </c>
       <c r="V10" t="n">
-        <v>10.14751579941802</v>
+        <v>342.3502491207257</v>
       </c>
       <c r="W10" t="n">
-        <v>6.852011837538956</v>
+        <v>342.3502491207257</v>
       </c>
       <c r="X10" t="n">
-        <v>6.852011837538956</v>
+        <v>342.3502491207257</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.852011837538956</v>
+        <v>342.3502491207257</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1333.784481314111</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="C11" t="n">
-        <v>1333.784481314111</v>
+        <v>1622.648043367471</v>
       </c>
       <c r="D11" t="n">
-        <v>1333.784481314111</v>
+        <v>1186.738258541915</v>
       </c>
       <c r="E11" t="n">
-        <v>900.0097364724058</v>
+        <v>752.9635137002106</v>
       </c>
       <c r="F11" t="n">
-        <v>472.1423068816136</v>
+        <v>325.0960841094183</v>
       </c>
       <c r="G11" t="n">
-        <v>72.63961556109075</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
         <v>512.3249274228017</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
         <v>1131.58869045549</v>
@@ -5059,7 +5059,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U11" t="n">
-        <v>2101.256885969251</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V11" t="n">
-        <v>1738.639935903077</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W11" t="n">
-        <v>1333.784481314111</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="X11" t="n">
-        <v>1333.784481314111</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="Y11" t="n">
-        <v>1333.784481314111</v>
+        <v>2060.790516184048</v>
       </c>
     </row>
     <row r="12">
@@ -5099,25 +5099,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>471.655226289377</v>
+        <v>750.041858240633</v>
       </c>
       <c r="C13" t="n">
-        <v>299.093514772602</v>
+        <v>577.480146723858</v>
       </c>
       <c r="D13" t="n">
-        <v>133.2155219741246</v>
+        <v>411.6021539253807</v>
       </c>
       <c r="E13" t="n">
-        <v>47.20655154895474</v>
+        <v>241.8441501761179</v>
       </c>
       <c r="F13" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>744.992999204955</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M13" t="n">
-        <v>1066.127311827553</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N13" t="n">
-        <v>1635.885026789087</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V13" t="n">
-        <v>1408.311674774552</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W13" t="n">
-        <v>1136.285270360843</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X13" t="n">
-        <v>890.8935156942559</v>
+        <v>1169.280147645512</v>
       </c>
       <c r="Y13" t="n">
-        <v>663.4738450083642</v>
+        <v>941.8604769596202</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1173.712709371907</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="C14" t="n">
-        <v>735.5702365553307</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="D14" t="n">
-        <v>735.5702365553307</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E14" t="n">
-        <v>735.5702365553307</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F14" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V14" t="n">
-        <v>1997.710627381563</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W14" t="n">
-        <v>1592.855172792597</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="X14" t="n">
-        <v>1173.712709371907</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="Y14" t="n">
-        <v>1173.712709371907</v>
+        <v>1889.485634438363</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235873</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
         <v>81.42328772043086</v>
@@ -5363,19 +5363,19 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P15" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q15" t="n">
         <v>1614.947661807679</v>
@@ -5396,13 +5396,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W15" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>616.081764785142</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C16" t="n">
-        <v>443.520053268367</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D16" t="n">
-        <v>393.6716093364613</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E16" t="n">
-        <v>223.9136055871985</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895474</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
@@ -5442,19 +5442,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>1106.33113894078</v>
+        <v>862.082053811994</v>
       </c>
       <c r="M16" t="n">
-        <v>1236.93553127931</v>
+        <v>992.6864461505235</v>
       </c>
       <c r="N16" t="n">
-        <v>1364.434443083199</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527957</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5466,22 +5466,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T16" t="n">
-        <v>2118.080353351143</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U16" t="n">
-        <v>1839.693721399886</v>
+        <v>2081.940945496479</v>
       </c>
       <c r="V16" t="n">
-        <v>1552.738213270317</v>
+        <v>2028.948289708806</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.711808856609</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X16" t="n">
-        <v>1035.320054190021</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y16" t="n">
-        <v>807.9003835041292</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>765.4265856715607</v>
+        <v>1078.11619088664</v>
       </c>
       <c r="C17" t="n">
-        <v>765.4265856715607</v>
+        <v>1078.11619088664</v>
       </c>
       <c r="D17" t="n">
-        <v>765.4265856715607</v>
+        <v>1078.11619088664</v>
       </c>
       <c r="E17" t="n">
-        <v>765.4265856715607</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F17" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435808</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>1997.710627381563</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W17" t="n">
-        <v>1592.855172792597</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="X17" t="n">
-        <v>1173.712709371907</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="Y17" t="n">
-        <v>765.4265856715607</v>
+        <v>1078.11619088664</v>
       </c>
     </row>
     <row r="18">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>471.655226289377</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C19" t="n">
-        <v>299.093514772602</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D19" t="n">
-        <v>133.2155219741246</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E19" t="n">
-        <v>47.20655154895474</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H19" t="n">
         <v>47.20655154895474</v>
@@ -5673,25 +5673,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>481.9462364092378</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M19" t="n">
-        <v>1066.127311827553</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N19" t="n">
-        <v>1635.885026789087</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5706,19 +5706,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V19" t="n">
-        <v>1408.311674774552</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="W19" t="n">
-        <v>1136.285270360843</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="X19" t="n">
-        <v>890.8935156942559</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y19" t="n">
-        <v>663.4738450083642</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>874.1756481082185</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C20" t="n">
-        <v>436.0331752916418</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D20" t="n">
-        <v>436.0331752916418</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E20" t="n">
-        <v>436.0331752916418</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F20" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M20" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
         <v>2043.069798152528</v>
@@ -5782,22 +5782,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2060.790516184048</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V20" t="n">
-        <v>1698.173566117875</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W20" t="n">
-        <v>1293.318111528908</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X20" t="n">
-        <v>874.1756481082185</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y20" t="n">
-        <v>874.1756481082185</v>
+        <v>673.2607362976731</v>
       </c>
     </row>
     <row r="21">
@@ -5813,22 +5813,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>750.0418582406339</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C22" t="n">
-        <v>577.4801467238589</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D22" t="n">
-        <v>411.6021539253816</v>
+        <v>133.2155219741237</v>
       </c>
       <c r="E22" t="n">
-        <v>241.8441501761188</v>
+        <v>133.2155219741237</v>
       </c>
       <c r="F22" t="n">
-        <v>65.13709613787503</v>
+        <v>133.2155219741237</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
         <v>192.6919004158277</v>
@@ -5919,10 +5919,10 @@
         <v>688.1212571728194</v>
       </c>
       <c r="M22" t="n">
-        <v>1272.302332591134</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N22" t="n">
-        <v>1539.854607180195</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O22" t="n">
         <v>1657.620488527956</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1973.653814855378</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1686.698306725809</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W22" t="n">
-        <v>1414.6719023121</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X22" t="n">
-        <v>1169.280147645513</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y22" t="n">
-        <v>941.8604769596211</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>925.4983576137637</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C23" t="n">
-        <v>925.4983576137637</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D23" t="n">
-        <v>925.4983576137637</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E23" t="n">
-        <v>925.4983576137637</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F23" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G23" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286703</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431968</v>
       </c>
       <c r="O23" t="n">
         <v>1775.96950697326</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q23" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R23" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131647</v>
       </c>
       <c r="U23" t="n">
-        <v>2101.256885969251</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="V23" t="n">
-        <v>1738.639935903077</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="W23" t="n">
-        <v>1333.78448131411</v>
+        <v>1700.437400475421</v>
       </c>
       <c r="X23" t="n">
-        <v>1333.78448131411</v>
+        <v>1281.294937054732</v>
       </c>
       <c r="Y23" t="n">
-        <v>925.4983576137637</v>
+        <v>873.0088133543854</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D24" t="n">
         <v>341.0245550495863</v>
@@ -6059,13 +6059,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
@@ -6123,52 +6123,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>616.0817647851416</v>
+        <v>616.0817647851425</v>
       </c>
       <c r="C25" t="n">
-        <v>443.5200532683665</v>
+        <v>443.5200532683674</v>
       </c>
       <c r="D25" t="n">
-        <v>443.5200532683665</v>
+        <v>443.5200532683674</v>
       </c>
       <c r="E25" t="n">
-        <v>273.7620495191038</v>
+        <v>273.7620495191047</v>
       </c>
       <c r="F25" t="n">
-        <v>97.05499548085996</v>
+        <v>97.05499548086087</v>
       </c>
       <c r="G25" t="n">
-        <v>97.05499548085996</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J25" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K25" t="n">
-        <v>202.912315818696</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L25" t="n">
-        <v>481.9462364092375</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M25" t="n">
-        <v>1066.127311827552</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N25" t="n">
-        <v>1635.885026789086</v>
+        <v>1708.047382044527</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392289</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q25" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R25" t="n">
         <v>2360.327577447737</v>
@@ -6177,22 +6177,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T25" t="n">
-        <v>2118.080353351143</v>
+        <v>2118.080353351144</v>
       </c>
       <c r="U25" t="n">
-        <v>1839.693721399886</v>
+        <v>1839.693721399887</v>
       </c>
       <c r="V25" t="n">
-        <v>1552.738213270316</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W25" t="n">
-        <v>1280.711808856608</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X25" t="n">
         <v>1035.320054190021</v>
       </c>
       <c r="Y25" t="n">
-        <v>807.9003835041287</v>
+        <v>807.9003835041296</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1782.900983623584</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="C26" t="n">
-        <v>1344.758510807007</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="D26" t="n">
-        <v>908.8487259814518</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="E26" t="n">
-        <v>475.073981139747</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867029</v>
       </c>
       <c r="M26" t="n">
         <v>1131.58869045549</v>
@@ -6247,31 +6247,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q26" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R26" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131647</v>
       </c>
       <c r="U26" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="V26" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W26" t="n">
-        <v>1955.47212285877</v>
+        <v>1282.862796160616</v>
       </c>
       <c r="X26" t="n">
-        <v>1782.900983623584</v>
+        <v>1282.862796160616</v>
       </c>
       <c r="Y26" t="n">
-        <v>1782.900983623584</v>
+        <v>874.5766724602698</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>542.5713050663909</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030332</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G27" t="n">
         <v>79.1492015823585</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I27" t="n">
         <v>81.42328772043086</v>
@@ -6347,10 +6347,10 @@
         <v>945.2284211280532</v>
       </c>
       <c r="X27" t="n">
-        <v>790.3609853669333</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y27" t="n">
-        <v>663.875206146154</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="28">
@@ -6360,52 +6360,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>616.081764785142</v>
+        <v>616.0817647851425</v>
       </c>
       <c r="C28" t="n">
-        <v>559.5496021349386</v>
+        <v>443.5200532683674</v>
       </c>
       <c r="D28" t="n">
-        <v>393.6716093364613</v>
+        <v>388.6547859746802</v>
       </c>
       <c r="E28" t="n">
-        <v>223.9136055871985</v>
+        <v>388.6547859746802</v>
       </c>
       <c r="F28" t="n">
-        <v>47.20655154895474</v>
+        <v>211.9477319364364</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J28" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K28" t="n">
-        <v>477.6707703898317</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L28" t="n">
-        <v>1019.751453776091</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M28" t="n">
-        <v>1150.35584611462</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N28" t="n">
-        <v>1277.854757918509</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O28" t="n">
-        <v>1815.289888492053</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P28" t="n">
-        <v>2263.565838640078</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q28" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R28" t="n">
         <v>2360.327577447737</v>
@@ -6414,10 +6414,10 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T28" t="n">
-        <v>2118.080353351143</v>
+        <v>2118.080353351144</v>
       </c>
       <c r="U28" t="n">
-        <v>1839.693721399886</v>
+        <v>1839.693721399887</v>
       </c>
       <c r="V28" t="n">
         <v>1552.738213270317</v>
@@ -6429,7 +6429,7 @@
         <v>1035.320054190021</v>
       </c>
       <c r="Y28" t="n">
-        <v>807.9003835041292</v>
+        <v>807.9003835041296</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>485.3490243655314</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C29" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D29" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E29" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N29" t="n">
         <v>1463.013992431967</v>
@@ -6481,7 +6481,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
@@ -6499,16 +6499,16 @@
         <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>1735.646512860095</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W29" t="n">
-        <v>1330.791058271128</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X29" t="n">
-        <v>911.6485948504392</v>
+        <v>662.4043965773309</v>
       </c>
       <c r="Y29" t="n">
-        <v>911.6485948504392</v>
+        <v>446.7092428694776</v>
       </c>
     </row>
     <row r="30">
@@ -6521,25 +6521,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E30" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G30" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.0817647851416</v>
+        <v>927.5506608361497</v>
       </c>
       <c r="C31" t="n">
-        <v>558.4127897239429</v>
+        <v>754.9889493193747</v>
       </c>
       <c r="D31" t="n">
-        <v>558.4127897239429</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E31" t="n">
-        <v>388.6547859746801</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F31" t="n">
-        <v>211.9477319364363</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K31" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L31" t="n">
-        <v>481.9462364092375</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M31" t="n">
-        <v>1066.127311827552</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N31" t="n">
-        <v>1635.885026789086</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P31" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T31" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270316</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.711808856608</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X31" t="n">
-        <v>1035.320054190021</v>
+        <v>1346.788950241029</v>
       </c>
       <c r="Y31" t="n">
-        <v>807.9003835041287</v>
+        <v>1119.369279555137</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1530.944687111453</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C32" t="n">
-        <v>1308.351417301975</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D32" t="n">
-        <v>1308.351417301975</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E32" t="n">
-        <v>874.5766724602698</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F32" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G32" t="n">
         <v>47.20655154895474</v>
@@ -6736,16 +6736,16 @@
         <v>2319.861207662534</v>
       </c>
       <c r="V32" t="n">
-        <v>1957.244257596361</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W32" t="n">
-        <v>1957.244257596361</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X32" t="n">
-        <v>1957.244257596361</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y32" t="n">
-        <v>1957.244257596361</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>1119.791305117178</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D33" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E33" t="n">
-        <v>930.5806015906853</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F33" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G33" t="n">
-        <v>762.8256627965038</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H33" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I33" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J33" t="n">
-        <v>858.9930882810432</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M33" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N33" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O33" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P33" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q33" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R33" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S33" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T33" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U33" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V33" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W33" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X33" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y33" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.291841223631</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C34" t="n">
-        <v>919.7301297068562</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D34" t="n">
-        <v>753.852136908379</v>
+        <v>443.520053268367</v>
       </c>
       <c r="E34" t="n">
-        <v>584.0941331591162</v>
+        <v>273.7620495191042</v>
       </c>
       <c r="F34" t="n">
-        <v>407.3870791208724</v>
+        <v>97.05499548086041</v>
       </c>
       <c r="G34" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H34" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I34" t="n">
         <v>47.20655154895474</v>
@@ -6867,13 +6867,13 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M34" t="n">
-        <v>1690.512214359095</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N34" t="n">
-        <v>1818.011126162985</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O34" t="n">
-        <v>1935.777007510746</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P34" t="n">
         <v>2105.896438675982</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T34" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U34" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V34" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W34" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X34" t="n">
-        <v>1136.285270360843</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y34" t="n">
-        <v>1136.285270360843</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2360.327577447737</v>
+        <v>1154.573267142144</v>
       </c>
       <c r="C35" t="n">
-        <v>1922.18510463116</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D35" t="n">
-        <v>1486.275319805605</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E35" t="n">
-        <v>1052.5005749639</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F35" t="n">
-        <v>624.6331453731077</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G35" t="n">
-        <v>225.1304540525849</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L35" t="n">
         <v>805.4408022867025</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V35" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W35" t="n">
-        <v>2360.327577447737</v>
+        <v>1154.573267142144</v>
       </c>
       <c r="X35" t="n">
-        <v>2360.327577447737</v>
+        <v>1154.573267142144</v>
       </c>
       <c r="Y35" t="n">
-        <v>2360.327577447737</v>
+        <v>1154.573267142144</v>
       </c>
     </row>
     <row r="36">
@@ -6995,16 +6995,16 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E36" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G36" t="n">
         <v>79.1492015823585</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1029.196554659879</v>
+        <v>1079.926787917838</v>
       </c>
       <c r="C37" t="n">
-        <v>856.6348431431041</v>
+        <v>907.3650764010625</v>
       </c>
       <c r="D37" t="n">
-        <v>690.7568503446269</v>
+        <v>741.4870836025852</v>
       </c>
       <c r="E37" t="n">
-        <v>520.9988465953642</v>
+        <v>571.7290798533224</v>
       </c>
       <c r="F37" t="n">
-        <v>344.2917925571204</v>
+        <v>395.0220258150787</v>
       </c>
       <c r="G37" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
         <v>47.20655154895474</v>
@@ -7104,10 +7104,10 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M37" t="n">
-        <v>1412.355695376305</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N37" t="n">
-        <v>1539.854607180195</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O37" t="n">
         <v>1657.620488527957</v>
@@ -7128,19 +7128,19 @@
         <v>2118.080353351143</v>
       </c>
       <c r="U37" t="n">
-        <v>2118.080353351143</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V37" t="n">
-        <v>1831.124845221574</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W37" t="n">
-        <v>1693.826598731346</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.434844064758</v>
+        <v>1307.346458603729</v>
       </c>
       <c r="Y37" t="n">
-        <v>1221.015173378866</v>
+        <v>1079.926787917838</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>908.8487259814518</v>
+        <v>1035.877686363847</v>
       </c>
       <c r="C38" t="n">
-        <v>908.8487259814518</v>
+        <v>1035.877686363847</v>
       </c>
       <c r="D38" t="n">
-        <v>908.8487259814518</v>
+        <v>1035.877686363847</v>
       </c>
       <c r="E38" t="n">
-        <v>475.073981139747</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G38" t="n">
         <v>47.20655154895474</v>
@@ -7171,16 +7171,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M38" t="n">
         <v>1131.58869045549</v>
@@ -7195,31 +7195,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R38" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V38" t="n">
-        <v>2159.146214476015</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W38" t="n">
-        <v>1754.290759887049</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="X38" t="n">
-        <v>1335.14829646636</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="Y38" t="n">
-        <v>1335.14829646636</v>
+        <v>1035.877686363847</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495866</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9041403765403</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927019</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G39" t="n">
         <v>79.1492015823585</v>
@@ -7292,13 +7292,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W39" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X39" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y39" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="40">
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>616.081764785142</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C40" t="n">
-        <v>443.520053268367</v>
+        <v>444.801022249451</v>
       </c>
       <c r="D40" t="n">
-        <v>393.6716093364613</v>
+        <v>444.801022249451</v>
       </c>
       <c r="E40" t="n">
-        <v>223.9136055871985</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="F40" t="n">
-        <v>47.20655154895474</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L40" t="n">
-        <v>481.9462364092378</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M40" t="n">
-        <v>1066.127311827553</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N40" t="n">
-        <v>1635.885026789087</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T40" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V40" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W40" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X40" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y40" t="n">
-        <v>807.9003835041292</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1782.900983623584</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="C41" t="n">
-        <v>1344.758510807007</v>
+        <v>1622.648043367471</v>
       </c>
       <c r="D41" t="n">
-        <v>908.8487259814518</v>
+        <v>1186.738258541915</v>
       </c>
       <c r="E41" t="n">
-        <v>475.073981139747</v>
+        <v>752.9635137002106</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895472</v>
+        <v>325.0960841094183</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K41" t="n">
         <v>512.3249274228015</v>
       </c>
       <c r="L41" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M41" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
         <v>1775.969506973259</v>
@@ -7435,28 +7435,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U41" t="n">
-        <v>2145.517933689757</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V41" t="n">
-        <v>1782.900983623584</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W41" t="n">
-        <v>1782.900983623584</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="X41" t="n">
-        <v>1782.900983623584</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="Y41" t="n">
-        <v>1782.900983623584</v>
+        <v>2060.790516184048</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>762.8256627965027</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>730.8830127630988</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
-        <v>765.0997489345748</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
-        <v>858.9930882810419</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>1019.471760335212</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.990728248782</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>616.0817647851411</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C43" t="n">
-        <v>585.2309455701119</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D43" t="n">
-        <v>419.3529527716346</v>
+        <v>133.2155219741237</v>
       </c>
       <c r="E43" t="n">
-        <v>419.3529527716346</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="F43" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G43" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H43" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
         <v>192.6919004158277</v>
@@ -7575,13 +7575,13 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>828.1746199579899</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M43" t="n">
-        <v>1412.355695376305</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N43" t="n">
-        <v>1539.854607180194</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O43" t="n">
         <v>1657.620488527956</v>
@@ -7593,28 +7593,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T43" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U43" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V43" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W43" t="n">
-        <v>1280.711808856608</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X43" t="n">
-        <v>1035.32005419002</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y43" t="n">
-        <v>807.9003835041283</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1952.04145374739</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C44" t="n">
-        <v>1513.898980930814</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D44" t="n">
-        <v>1077.989196105258</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E44" t="n">
-        <v>644.2144512635532</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F44" t="n">
-        <v>216.3470216727609</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G44" t="n">
-        <v>216.3470216727609</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
         <v>805.4408022867025</v>
@@ -7675,25 +7675,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W44" t="n">
-        <v>2360.327577447737</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X44" t="n">
-        <v>2360.327577447737</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="Y44" t="n">
-        <v>1952.04145374739</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>542.5713050663906</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030328</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495861</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765398</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927014</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235827</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
         <v>47.20655154895474</v>
@@ -7766,13 +7766,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W45" t="n">
-        <v>945.228421128053</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X45" t="n">
-        <v>790.3609853669329</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y45" t="n">
-        <v>663.8752061461537</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>992.2890823372272</v>
+        <v>807.9003835041292</v>
       </c>
       <c r="C46" t="n">
-        <v>819.7273708204522</v>
+        <v>754.9889493193747</v>
       </c>
       <c r="D46" t="n">
-        <v>653.8493780219749</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E46" t="n">
-        <v>484.0913742727121</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F46" t="n">
-        <v>307.3843202344683</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G46" t="n">
-        <v>142.6431398469867</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H46" t="n">
         <v>110.3018381127067</v>
@@ -7806,25 +7806,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>477.6707703898317</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>1019.751453776091</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M46" t="n">
-        <v>1150.35584611462</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N46" t="n">
-        <v>1277.85475791851</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O46" t="n">
-        <v>1815.289888492053</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P46" t="n">
-        <v>2263.565838640078</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
-        <v>2215.901038951972</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>2215.901038951972</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1928.945530822402</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W46" t="n">
-        <v>1656.919126408694</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X46" t="n">
-        <v>1411.527371742106</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>1184.107701056214</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
   </sheetData>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6222042310422755</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>99.93061208465409</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>39.2032287638514</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>2.907001885183224</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>99.33766198190295</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8622,16 +8622,16 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03251511490680181</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>2.583959521204308</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.681898459715344</v>
+        <v>11.38814337090491</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.860536639450492</v>
+        <v>104.8520877340649</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>192.4544649334023</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>141.4680432173443</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9090,7 +9090,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>175.7179764032068</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -9099,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>177.1920849464601</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>156.7304232042867</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371571</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9567,13 +9567,13 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>141.4680432173443</v>
+        <v>175.7179764032066</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -9801,19 +9801,19 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>156.7304232042864</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>253.9135309266342</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -10047,13 +10047,13 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464607</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>10.62967161639972</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>156.7304232042864</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>141.4680432173448</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10515,16 +10515,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P34" t="n">
-        <v>70.05088382580998</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821538</v>
@@ -10752,13 +10752,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>177.1920849464602</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>156.7304232042867</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>141.468043217344</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>458.1582657371569</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>141.4680432173443</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -11469,13 +11469,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>10.62967161639926</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23029,16 +23029,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>426.1744484710275</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3731502167427</v>
+        <v>277.9210461097555</v>
       </c>
       <c r="H8" t="n">
-        <v>282.8666935650426</v>
+        <v>282.3584801445919</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>79.69781087889746</v>
+        <v>74.18125311796778</v>
       </c>
       <c r="T8" t="n">
-        <v>217.819703146337</v>
+        <v>216.2079358176206</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6292234284552</v>
+        <v>137.5158574008327</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>295.917791637278</v>
       </c>
       <c r="X8" t="n">
-        <v>411.6884898642221</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>285.1193519208828</v>
       </c>
     </row>
     <row r="9">
@@ -23108,16 +23108,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>81.65185921816891</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>41.26298946135317</v>
+        <v>39.36037526809192</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,22 +23150,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.45196651563608</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>128.8537753079323</v>
+        <v>128.0597233353587</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5728047847957</v>
+        <v>174.5598441976481</v>
       </c>
       <c r="V9" t="n">
-        <v>193.8637938363604</v>
+        <v>173.1824448450394</v>
       </c>
       <c r="W9" t="n">
-        <v>180.2069778018777</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
-        <v>153.3187614035088</v>
+        <v>34.2348508610485</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -23184,22 +23184,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>160.9566639482323</v>
+        <v>45.13530232803222</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>83.61250366822641</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9305612960722</v>
+        <v>44.6814917960813</v>
       </c>
       <c r="H10" t="n">
-        <v>135.1979190266826</v>
+        <v>136.9920546719889</v>
       </c>
       <c r="I10" t="n">
-        <v>87.62897272389382</v>
+        <v>82.66219243742793</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,22 +23226,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.5652879271376</v>
+        <v>35.6031071884394</v>
       </c>
       <c r="T10" t="n">
-        <v>243.400138899798</v>
+        <v>242.6944597176218</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6484088706061</v>
+        <v>275.6394002001954</v>
       </c>
       <c r="V10" t="n">
-        <v>281.212299957547</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>266.0435914473111</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -23260,10 +23260,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>120.3970271724586</v>
       </c>
       <c r="H11" t="n">
-        <v>241.845602569514</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
@@ -23317,10 +23317,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.91154299085191</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>113.2693808714471</v>
       </c>
       <c r="G13" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811443</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23497,22 +23497,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>289.9888601006865</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>404.6407074874185</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>231.6232238184774</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23740,16 +23740,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>227.9328741511811</v>
       </c>
       <c r="F17" t="n">
-        <v>375.0829218623507</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>82.91154299085191</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>62.46433369811443</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>7.057009085481468</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>197.7505962861451</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -23980,13 +23980,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>305.6747337311527</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24135,13 +24135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>145.3425294405757</v>
+        <v>77.94488786268946</v>
       </c>
       <c r="H22" t="n">
         <v>131.0206200144773</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -24217,13 +24217,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>216.6118676395698</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>253.7108545071148</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>113.7438090910197</v>
       </c>
       <c r="H25" t="n">
-        <v>81.67066052189108</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
         <v>62.46433369811443</v>
@@ -24445,19 +24445,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>199.3027768009698</v>
       </c>
       <c r="X26" t="n">
-        <v>244.1056109436479</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>109.9025982497422</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>131.0206200144773</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -24694,7 +24694,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>246.7517562903774</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>190.6650602925683</v>
       </c>
     </row>
     <row r="30">
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>113.7438090910206</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>175.7337145695607</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>213.3937109770275</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -24976,7 +24976,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -24985,7 +24985,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>294.6492154448413</v>
       </c>
     </row>
     <row r="33">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>146.3469376859572</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>113.7438090910202</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,19 +25159,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>90.87967246293483</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>72.29614307268236</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>12.24140277273577</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.3808763442455</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -25399,13 +25399,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>269.7489936287461</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>159.8212312235073</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>144.2504324020806</v>
       </c>
       <c r="D40" t="n">
-        <v>114.8692533779059</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>120.3970271724586</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -25684,10 +25684,10 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>83.88014333065303</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>140.2937833787284</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>145.3758766889673</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25867,22 +25867,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>99.57527051896051</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>53.4861337707539</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>118.4537745587003</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>99.00273129754002</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2570.208866300584</v>
+        <v>92421.06054655893</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>411804.5730311602</v>
+        <v>411804.5730311601</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>411804.5730311602</v>
+        <v>411804.5730311601</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>411804.5730311602</v>
+        <v>411804.5730311601</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>411804.5730311602</v>
+        <v>411804.5730311603</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>411804.5730311602</v>
+        <v>411804.5730311603</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>411804.57303116</v>
+        <v>411804.5730311601</v>
       </c>
     </row>
     <row r="16">
@@ -26319,7 +26319,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>918.919432818745</v>
+        <v>32959.20567922357</v>
       </c>
       <c r="E2" t="n">
         <v>149432.6927357765</v>
@@ -26334,7 +26334,7 @@
         <v>149432.6927357765</v>
       </c>
       <c r="I2" t="n">
-        <v>149432.6927357764</v>
+        <v>149432.6927357765</v>
       </c>
       <c r="J2" t="n">
         <v>149432.6927357765</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3293.504824504878</v>
+        <v>117708.4675730573</v>
       </c>
       <c r="E3" t="n">
-        <v>548022.1493403782</v>
+        <v>439858.2450180447</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>825.7217692838044</v>
+        <v>30139.06600310182</v>
       </c>
       <c r="M3" t="n">
-        <v>146237.7281609485</v>
+        <v>117374.5815597482</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>106.4647761335763</v>
+        <v>4054.877516836916</v>
       </c>
       <c r="E4" t="n">
         <v>11163.53558956959</v>
@@ -26438,13 +26438,13 @@
         <v>11163.53558956959</v>
       </c>
       <c r="I4" t="n">
-        <v>11163.53558956958</v>
+        <v>11163.53558956959</v>
       </c>
       <c r="J4" t="n">
         <v>11163.53558956959</v>
       </c>
       <c r="K4" t="n">
-        <v>11163.53558956958</v>
+        <v>11163.53558956959</v>
       </c>
       <c r="L4" t="n">
         <v>11163.53558956959</v>
@@ -26475,28 +26475,28 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33884.00183384596</v>
+        <v>42922.56227239232</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="H5" t="n">
+        <v>46051.08120963781</v>
+      </c>
+      <c r="I5" t="n">
+        <v>46051.08120963783</v>
+      </c>
+      <c r="J5" t="n">
+        <v>46051.08120963783</v>
+      </c>
+      <c r="K5" t="n">
         <v>46051.08120963782</v>
-      </c>
-      <c r="I5" t="n">
-        <v>46051.08120963781</v>
-      </c>
-      <c r="J5" t="n">
-        <v>46051.08120963782</v>
-      </c>
-      <c r="K5" t="n">
-        <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
         <v>46051.08120963782</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-36365.05200166567</v>
+        <v>-132893.6004792141</v>
       </c>
       <c r="E6" t="n">
-        <v>-455804.0734038092</v>
+        <v>-348194.0495246976</v>
       </c>
       <c r="F6" t="n">
-        <v>92218.07593656905</v>
+        <v>91664.19549334711</v>
       </c>
       <c r="G6" t="n">
-        <v>92218.07593656905</v>
+        <v>91664.19549334713</v>
       </c>
       <c r="H6" t="n">
-        <v>92218.07593656905</v>
+        <v>91664.19549334711</v>
       </c>
       <c r="I6" t="n">
-        <v>92218.07593656902</v>
+        <v>91664.19549334714</v>
       </c>
       <c r="J6" t="n">
-        <v>92218.07593656908</v>
+        <v>91664.19549334714</v>
       </c>
       <c r="K6" t="n">
-        <v>92218.07593656905</v>
+        <v>91664.19549334716</v>
       </c>
       <c r="L6" t="n">
-        <v>91392.35416728526</v>
+        <v>61525.12949024531</v>
       </c>
       <c r="M6" t="n">
-        <v>-54019.65222437949</v>
+        <v>-25710.38606640102</v>
       </c>
       <c r="N6" t="n">
-        <v>92218.07593656908</v>
+        <v>91664.19549334716</v>
       </c>
       <c r="O6" t="n">
-        <v>92218.07593656906</v>
+        <v>91664.19549334711</v>
       </c>
       <c r="P6" t="n">
-        <v>92218.0759365691</v>
+        <v>91664.19549334713</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.662332998740292</v>
+        <v>94.25048217480426</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
         <v>466.7019280932212</v>
@@ -26776,7 +26776,7 @@
         <v>466.7019280932212</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
         <v>466.7019280932212</v>
@@ -26795,28 +26795,28 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.262548922260276</v>
+        <v>119.0839105424603</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="H4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="I4" t="n">
+        <v>590.0818943619344</v>
+      </c>
+      <c r="J4" t="n">
+        <v>590.0818943619344</v>
+      </c>
+      <c r="K4" t="n">
         <v>590.0818943619342</v>
-      </c>
-      <c r="I4" t="n">
-        <v>590.0818943619341</v>
-      </c>
-      <c r="J4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="K4" t="n">
-        <v>590.0818943619341</v>
       </c>
       <c r="L4" t="n">
         <v>590.0818943619342</v>
@@ -26828,7 +26828,7 @@
         <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="P4" t="n">
         <v>590.0818943619342</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.662332998740292</v>
+        <v>94.25048217480428</v>
       </c>
       <c r="E3" t="n">
-        <v>464.0395950944809</v>
+        <v>372.4514459184169</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.262548922260276</v>
+        <v>119.0839105424603</v>
       </c>
       <c r="E4" t="n">
-        <v>586.819345439674</v>
+        <v>470.9979838194738</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.26254892226039</v>
+        <v>119.0839105424603</v>
       </c>
       <c r="M4" t="n">
-        <v>586.819345439674</v>
+        <v>470.9979838194738</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.262548922260276</v>
+        <v>119.0839105424603</v>
       </c>
       <c r="M4" t="n">
-        <v>586.819345439674</v>
+        <v>470.9979838194738</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01070284622609162</v>
+        <v>0.3788964107529817</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1096105239129608</v>
+        <v>3.880372866623974</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313975</v>
+        <v>14.60740387555434</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9083906948817443</v>
+        <v>32.15835924214591</v>
       </c>
       <c r="K8" t="n">
-        <v>1.361442175632203</v>
+        <v>48.19704430931963</v>
       </c>
       <c r="L8" t="n">
-        <v>1.688989405823955</v>
+        <v>59.79269533990121</v>
       </c>
       <c r="M8" t="n">
-        <v>1.879326147397211</v>
+        <v>66.53089438462955</v>
       </c>
       <c r="N8" t="n">
-        <v>1.909735609237094</v>
+        <v>67.60743381168146</v>
       </c>
       <c r="O8" t="n">
-        <v>1.803309182076396</v>
+        <v>63.83978262725649</v>
       </c>
       <c r="P8" t="n">
-        <v>1.539082665869759</v>
+        <v>54.48577748679224</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.155786985397852</v>
+        <v>40.91654977670107</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6723126642497281</v>
+        <v>23.80085166196201</v>
       </c>
       <c r="S8" t="n">
-        <v>0.243891108377063</v>
+        <v>8.634101960033579</v>
       </c>
       <c r="T8" t="n">
-        <v>0.04685170935471608</v>
+        <v>1.658619038071178</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0008562276980873292</v>
+        <v>0.03031171286023853</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0057265275821961</v>
+        <v>0.2027274522250507</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05530620059647287</v>
+        <v>1.957920393857727</v>
       </c>
       <c r="I9" t="n">
-        <v>0.19716334000105</v>
+        <v>6.979870613888807</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5410312747723079</v>
+        <v>19.15329845780622</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9247086227794465</v>
+        <v>32.73603775688461</v>
       </c>
       <c r="L9" t="n">
-        <v>1.243384859458851</v>
+        <v>44.01764264211024</v>
       </c>
       <c r="M9" t="n">
-        <v>1.450971484313459</v>
+        <v>51.36651278526831</v>
       </c>
       <c r="N9" t="n">
-        <v>1.489374382002836</v>
+        <v>52.72603153286526</v>
       </c>
       <c r="O9" t="n">
-        <v>1.362486586628912</v>
+        <v>48.2340179861944</v>
       </c>
       <c r="P9" t="n">
-        <v>1.093515604709008</v>
+        <v>38.71205182006253</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7309862225975232</v>
+        <v>25.87798144542928</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3555470370770527</v>
+        <v>12.58688514779745</v>
       </c>
       <c r="S9" t="n">
-        <v>0.106367738204388</v>
+        <v>3.765573509531092</v>
       </c>
       <c r="T9" t="n">
-        <v>0.02308192477209743</v>
+        <v>0.8171338973457084</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0003767452356707962</v>
+        <v>0.01333733238322702</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.004800928358384133</v>
+        <v>0.1699598858889913</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04268461758636077</v>
+        <v>1.511097894540305</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1443770091775883</v>
+        <v>5.111157295643484</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3394256349377581</v>
+        <v>12.01616393235168</v>
       </c>
       <c r="K10" t="n">
-        <v>0.55778058563772</v>
+        <v>19.74624856055734</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7137671124819465</v>
+        <v>25.26839976207785</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7525673425783417</v>
+        <v>26.64198465803524</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7346729732425469</v>
+        <v>26.00849781063084</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6785894010559683</v>
+        <v>24.02305732547307</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5806504625449316</v>
+        <v>20.55587565333763</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4020122828097841</v>
+        <v>14.23182280839544</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2158671969142538</v>
+        <v>7.642014505517733</v>
       </c>
       <c r="S10" t="n">
-        <v>0.08366708784565799</v>
+        <v>2.961937284083601</v>
       </c>
       <c r="T10" t="n">
-        <v>0.02051305753127765</v>
+        <v>0.726192239707508</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0002618688195482257</v>
+        <v>0.009270539230308626</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32788,7 +32788,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -33280,13 +33280,13 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
@@ -33751,7 +33751,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
         <v>191.6912126917233</v>
@@ -33991,7 +33991,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
@@ -34128,28 +34128,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -34161,7 +34161,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,13 +34204,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -34222,25 +34222,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
         <v>0.06604272567356906</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
@@ -34292,7 +34292,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34316,10 +34316,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
         <v>0.04590510768130049</v>
@@ -34380,7 +34380,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
         <v>316.1166813548411</v>
@@ -34395,10 +34395,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,7 +34441,7 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
         <v>34.56235976916781</v>
@@ -34453,7 +34453,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108055</v>
@@ -34471,16 +34471,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,25 +34517,25 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998885</v>
@@ -34547,10 +34547,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
         <v>14.66668190417549</v>
@@ -34559,7 +34559,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>14.19478239642294</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9083906948817437</v>
+        <v>32.15835924214591</v>
       </c>
       <c r="K8" t="n">
-        <v>1.361442175632203</v>
+        <v>48.19704430931963</v>
       </c>
       <c r="L8" t="n">
-        <v>1.688989405823954</v>
+        <v>59.7926953399012</v>
       </c>
       <c r="M8" t="n">
-        <v>1.879326147397212</v>
+        <v>66.53089438462956</v>
       </c>
       <c r="N8" t="n">
-        <v>1.909735609237093</v>
+        <v>67.60743381168146</v>
       </c>
       <c r="O8" t="n">
-        <v>1.803309182076397</v>
+        <v>63.83978262725651</v>
       </c>
       <c r="P8" t="n">
-        <v>1.539082665869758</v>
+        <v>54.48577748679224</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.155786985397853</v>
+        <v>40.91654977670106</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6723126642497288</v>
+        <v>23.80085166196199</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8193675710433255</v>
+        <v>6.979870613888808</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5410312747723078</v>
+        <v>119.0839105424603</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9247086227794465</v>
+        <v>71.939266520736</v>
       </c>
       <c r="L9" t="n">
-        <v>1.243384859458851</v>
+        <v>44.01764264211025</v>
       </c>
       <c r="M9" t="n">
-        <v>1.450971484313459</v>
+        <v>51.3665127852683</v>
       </c>
       <c r="N9" t="n">
-        <v>1.489374382002836</v>
+        <v>52.72603153286525</v>
       </c>
       <c r="O9" t="n">
-        <v>1.362486586628911</v>
+        <v>48.23401798619437</v>
       </c>
       <c r="P9" t="n">
-        <v>1.093515604709008</v>
+        <v>38.71205182006253</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7309862225975223</v>
+        <v>25.87798144542927</v>
       </c>
       <c r="R9" t="n">
-        <v>3.262548922260276</v>
+        <v>12.58688514779743</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3394256349377581</v>
+        <v>99.47039137143236</v>
       </c>
       <c r="K10" t="n">
-        <v>0.55778058563772</v>
+        <v>119.0839105424603</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7137671124819465</v>
+        <v>25.26839976207785</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7525673425783417</v>
+        <v>26.64198465803523</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7671880881493487</v>
+        <v>26.00849781063084</v>
       </c>
       <c r="O10" t="n">
-        <v>3.262548922260276</v>
+        <v>24.02305732547308</v>
       </c>
       <c r="P10" t="n">
-        <v>3.262548922260276</v>
+        <v>31.94401902424255</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.262548922260276</v>
+        <v>119.0839105424603</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,28 +35406,28 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.658232706284</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>324.3780935581794</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N13" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561043</v>
+        <v>260.4234789221541</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,10 +35643,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125714</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
@@ -35655,10 +35655,10 @@
         <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
         <v>316.1166813548411</v>
@@ -35667,7 +35667,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
         <v>117.855135640546</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646688</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>547.556245844706</v>
+        <v>300.8399982398713</v>
       </c>
       <c r="M16" t="n">
         <v>131.9236286247772</v>
@@ -35819,7 +35819,7 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>296.14752065127</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
         <v>452.8039900485103</v>
@@ -35886,19 +35886,19 @@
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
         <v>269.7982739184536</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>281.8524450409513</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619342</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N19" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36138,10 +36138,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
         <v>117.855135640546</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
         <v>375.3116718572664</v>
@@ -36287,19 +36287,19 @@
         <v>125.1220218366645</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N22" t="n">
-        <v>270.2548228172327</v>
+        <v>304.5047560030951</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36357,7 +36357,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
@@ -36366,7 +36366,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562342</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K25" t="n">
         <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
-        <v>281.852445040951</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N25" t="n">
-        <v>575.5128433954892</v>
+        <v>382.7003105265226</v>
       </c>
       <c r="O25" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q25" t="n">
         <v>70.4719911420766</v>
@@ -36594,13 +36594,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K28" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
         <v>131.9236286247772</v>
@@ -36767,13 +36767,13 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561043</v>
+        <v>296.1475206512705</v>
       </c>
       <c r="P28" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.10166275847632</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36834,7 +36834,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
         <v>296.0766412766674</v>
@@ -36849,7 +36849,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>281.852445040951</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M31" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="N31" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
-        <v>542.8637682561043</v>
+        <v>260.4234789221546</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -37165,13 +37165,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37235,16 +37235,16 @@
         <v>547.556245844706</v>
       </c>
       <c r="M34" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
-        <v>118.9554357048098</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P34" t="n">
-        <v>171.8378092578134</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
         <v>240.36368292423</v>
@@ -37305,13 +37305,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816032</v>
@@ -37472,13 +37472,13 @@
         <v>547.556245844706</v>
       </c>
       <c r="M37" t="n">
-        <v>309.1157135712374</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>118.9554357048098</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P37" t="n">
         <v>452.8039900485103</v>
@@ -37542,7 +37542,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
@@ -37551,7 +37551,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
@@ -37560,13 +37560,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>281.8524450409513</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561043</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37776,22 +37776,22 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
         <v>316.1166813548409</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916764</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -37879,10 +37879,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37943,16 +37943,16 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>266.5900650540085</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M43" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048098</v>
+        <v>260.4234789221541</v>
       </c>
       <c r="P43" t="n">
         <v>452.8039900485103</v>
@@ -38016,13 +38016,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125711</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.5006704062456</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K46" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>547.5562458447063</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247774</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561043</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>81.10166275847587</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
